--- a/biology/Zoologie/Cyanopyge_sangaris/Cyanopyge_sangaris.xlsx
+++ b/biology/Zoologie/Cyanopyge_sangaris/Cyanopyge_sangaris.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cyanopyge sangaris est une espèce néotropicale de lépidoptères de la famille des Hesperiidae, de la sous-famille des Pyrginae et de la tribu des Pyrrhopygini.
 Elle est l'unique représentante du genre monotypique Cyanopyge.
@@ -512,11 +524,13 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce Cyanopyge sangaris a été décrite par Skinner en 1921, sous le nom initial de Pyrrhopyge sangaris[1].
-Le genre Cyanopyge a quant à lui été décrit par Mielke en 2002[1].
-L'espèce porte en anglais le nom vernaculaire de Sangaris skipper[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Cyanopyge sangaris a été décrite par Skinner en 1921, sous le nom initial de Pyrrhopyge sangaris.
+Le genre Cyanopyge a quant à lui été décrit par Mielke en 2002.
+L'espèce porte en anglais le nom vernaculaire de Sangaris skipper.
 </t>
         </is>
       </c>
@@ -545,9 +559,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'imago de Cyanopyge sangaris est un papillon d'une envergure d'environ 55 mm, au corps trapu noir à reflets gris vert[2]. 
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'imago de Cyanopyge sangaris est un papillon d'une envergure d'environ 55 mm, au corps trapu noir à reflets gris vert. 
 Les ailes sont de couleur gris vert métallisé à reflets mordorés avec une frange grise et, aux ailes postérieures, une tache orange proche de l'angle anal.
 Le revers est semblable.
 </t>
@@ -578,9 +594,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cyanopyge sangaris est présente en Colombie[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cyanopyge sangaris est présente en Colombie.
 </t>
         </is>
       </c>
@@ -609,7 +627,9 @@
           <t>Protection</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">L'espèce n'a pas de statut de protection particulier.[réf. nécessaire]
 </t>
@@ -640,7 +660,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Henry T. Skinner, « Two New Species of Hesperidae (Lepid., Rhop.) », Entomological news, and proceedings of the Entomological Section of the Academy of Natural Sciences of Philadelphia, Philadelphie, Inconnu, vol. 32,‎ 1921, p. 236-237 (OCLC 1568007, lire en ligne)</t>
         </is>
